--- a/Altium/DigitalMaze/Project Outputs for DigitalMaze/Assembly/BOM/Bill of Materials-DigitalMaze.xlsx
+++ b/Altium/DigitalMaze/Project Outputs for DigitalMaze/Assembly/BOM/Bill of Materials-DigitalMaze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\СС\AppData\Local\Temp\Releases\Snapshot\1\Assembly\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD722D7-3D69-4C3A-B946-7C19B4E878C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F27F093-339F-4CA3-A80A-48DEC519E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{18AE8F72-0AF0-4E51-A248-007AD0DB492E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1D538C3F-16A1-4974-96F7-039F2BBDB636}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DigitalMaze" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C338A0-4F7D-4E3E-9E84-9D2DAFFFD1C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEBCDCA-19F4-46FD-977D-BB55D9EBAF29}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
